--- a/Project/Phase 2/Sprint2/Rafael Pereira/data_collected_metrics_Rafael_Pereira.xlsx
+++ b/Project/Phase 2/Sprint2/Rafael Pereira/data_collected_metrics_Rafael_Pereira.xlsx
@@ -2,21 +2,200 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="EsteLivro" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rafael Pereira\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E8A78A3-18D4-4B1B-B81C-EE4EECE590A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33ECD1F0-8D3E-44D1-BA79-B24EA52F3585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{41BCC7D8-E48A-4E23-9E1B-5FF40866E7BC}"/>
   </bookViews>
   <sheets>
     <sheet name="ChidamberandKemererMetric" sheetId="2" r:id="rId1"/>
-    <sheet name="Folha1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">'ChidamberandKemererMetric'!$B$183:$B$1031</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'ChidamberandKemererMetric'!$B$1:$B$182</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">'ChidamberandKemererMetric'!$F$1:$F$1031</definedName>
+    <definedName name="_xlchart.v1.100" hidden="1">'ChidamberandKemererMetric'!$D$183:$D$1031</definedName>
+    <definedName name="_xlchart.v1.101" hidden="1">'ChidamberandKemererMetric'!$D$1:$D$182</definedName>
+    <definedName name="_xlchart.v1.102" hidden="1">'ChidamberandKemererMetric'!$E$183:$E$1031</definedName>
+    <definedName name="_xlchart.v1.103" hidden="1">'ChidamberandKemererMetric'!$E$1:$E$1031</definedName>
+    <definedName name="_xlchart.v1.104" hidden="1">'ChidamberandKemererMetric'!$E$1:$E$182</definedName>
+    <definedName name="_xlchart.v1.105" hidden="1">'ChidamberandKemererMetric'!$F$183:$F$1031</definedName>
+    <definedName name="_xlchart.v1.106" hidden="1">'ChidamberandKemererMetric'!$F$1:$F$1031</definedName>
+    <definedName name="_xlchart.v1.107" hidden="1">'ChidamberandKemererMetric'!$F$1:$F$182</definedName>
+    <definedName name="_xlchart.v1.108" hidden="1">'ChidamberandKemererMetric'!$G$183:$G$1031</definedName>
+    <definedName name="_xlchart.v1.109" hidden="1">'ChidamberandKemererMetric'!$G$1:$G$1031</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">'ChidamberandKemererMetric'!$F$1:$F$182</definedName>
+    <definedName name="_xlchart.v1.110" hidden="1">'ChidamberandKemererMetric'!$G$1:$G$182</definedName>
+    <definedName name="_xlchart.v1.111" hidden="1">'ChidamberandKemererMetric'!$H$1:$H$1031</definedName>
+    <definedName name="_xlchart.v1.112" hidden="1">'ChidamberandKemererMetric'!$I$1:$I$1031</definedName>
+    <definedName name="_xlchart.v1.113" hidden="1">'ChidamberandKemererMetric'!$J$1:$J$1031</definedName>
+    <definedName name="_xlchart.v1.114" hidden="1">'ChidamberandKemererMetric'!$B$1</definedName>
+    <definedName name="_xlchart.v1.115" hidden="1">'ChidamberandKemererMetric'!$B$183:$B$1031</definedName>
+    <definedName name="_xlchart.v1.116" hidden="1">'ChidamberandKemererMetric'!$B$1:$B$182</definedName>
+    <definedName name="_xlchart.v1.117" hidden="1">'ChidamberandKemererMetric'!$C$1</definedName>
+    <definedName name="_xlchart.v1.118" hidden="1">'ChidamberandKemererMetric'!$C$183:$C$1031</definedName>
+    <definedName name="_xlchart.v1.119" hidden="1">'ChidamberandKemererMetric'!$C$1:$C$182</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">'ChidamberandKemererMetric'!$G$183:$G$1031</definedName>
+    <definedName name="_xlchart.v1.120" hidden="1">'ChidamberandKemererMetric'!$D$1</definedName>
+    <definedName name="_xlchart.v1.121" hidden="1">'ChidamberandKemererMetric'!$D$183:$D$1031</definedName>
+    <definedName name="_xlchart.v1.122" hidden="1">'ChidamberandKemererMetric'!$D$1:$D$182</definedName>
+    <definedName name="_xlchart.v1.123" hidden="1">'ChidamberandKemererMetric'!$E$1</definedName>
+    <definedName name="_xlchart.v1.124" hidden="1">'ChidamberandKemererMetric'!$E$183:$E$1031</definedName>
+    <definedName name="_xlchart.v1.125" hidden="1">'ChidamberandKemererMetric'!$E$1:$E$1031</definedName>
+    <definedName name="_xlchart.v1.126" hidden="1">'ChidamberandKemererMetric'!$E$1:$E$182</definedName>
+    <definedName name="_xlchart.v1.127" hidden="1">'ChidamberandKemererMetric'!$F$1</definedName>
+    <definedName name="_xlchart.v1.128" hidden="1">'ChidamberandKemererMetric'!$F$183:$F$1031</definedName>
+    <definedName name="_xlchart.v1.129" hidden="1">'ChidamberandKemererMetric'!$F$1:$F$1031</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">'ChidamberandKemererMetric'!$G$1:$G$1031</definedName>
+    <definedName name="_xlchart.v1.130" hidden="1">'ChidamberandKemererMetric'!$F$1:$F$182</definedName>
+    <definedName name="_xlchart.v1.131" hidden="1">'ChidamberandKemererMetric'!$G$1</definedName>
+    <definedName name="_xlchart.v1.132" hidden="1">'ChidamberandKemererMetric'!$G$183:$G$1031</definedName>
+    <definedName name="_xlchart.v1.133" hidden="1">'ChidamberandKemererMetric'!$G$1:$G$1031</definedName>
+    <definedName name="_xlchart.v1.134" hidden="1">'ChidamberandKemererMetric'!$G$1:$G$182</definedName>
+    <definedName name="_xlchart.v1.135" hidden="1">'ChidamberandKemererMetric'!$H$1:$H$1031</definedName>
+    <definedName name="_xlchart.v1.136" hidden="1">'ChidamberandKemererMetric'!$I$1:$I$1031</definedName>
+    <definedName name="_xlchart.v1.137" hidden="1">'ChidamberandKemererMetric'!$J$1:$J$1031</definedName>
+    <definedName name="_xlchart.v1.138" hidden="1">'ChidamberandKemererMetric'!$B$183:$B$1031</definedName>
+    <definedName name="_xlchart.v1.139" hidden="1">'ChidamberandKemererMetric'!$B$1:$B$182</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">'ChidamberandKemererMetric'!$G$1:$G$182</definedName>
+    <definedName name="_xlchart.v1.140" hidden="1">'ChidamberandKemererMetric'!$C$183:$C$1031</definedName>
+    <definedName name="_xlchart.v1.141" hidden="1">'ChidamberandKemererMetric'!$C$1:$C$182</definedName>
+    <definedName name="_xlchart.v1.142" hidden="1">'ChidamberandKemererMetric'!$D$183:$D$1031</definedName>
+    <definedName name="_xlchart.v1.143" hidden="1">'ChidamberandKemererMetric'!$D$1:$D$182</definedName>
+    <definedName name="_xlchart.v1.144" hidden="1">'ChidamberandKemererMetric'!$E$183:$E$1031</definedName>
+    <definedName name="_xlchart.v1.145" hidden="1">'ChidamberandKemererMetric'!$E$1:$E$1031</definedName>
+    <definedName name="_xlchart.v1.146" hidden="1">'ChidamberandKemererMetric'!$E$1:$E$182</definedName>
+    <definedName name="_xlchart.v1.147" hidden="1">'ChidamberandKemererMetric'!$F$183:$F$1031</definedName>
+    <definedName name="_xlchart.v1.148" hidden="1">'ChidamberandKemererMetric'!$F$1:$F$1031</definedName>
+    <definedName name="_xlchart.v1.149" hidden="1">'ChidamberandKemererMetric'!$F$1:$F$182</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">'ChidamberandKemererMetric'!$H$1:$H$1031</definedName>
+    <definedName name="_xlchart.v1.150" hidden="1">'ChidamberandKemererMetric'!$G$183:$G$1031</definedName>
+    <definedName name="_xlchart.v1.151" hidden="1">'ChidamberandKemererMetric'!$G$1:$G$1031</definedName>
+    <definedName name="_xlchart.v1.152" hidden="1">'ChidamberandKemererMetric'!$G$1:$G$182</definedName>
+    <definedName name="_xlchart.v1.153" hidden="1">'ChidamberandKemererMetric'!$H$1:$H$1031</definedName>
+    <definedName name="_xlchart.v1.154" hidden="1">'ChidamberandKemererMetric'!$I$1:$I$1031</definedName>
+    <definedName name="_xlchart.v1.155" hidden="1">'ChidamberandKemererMetric'!$J$1:$J$1031</definedName>
+    <definedName name="_xlchart.v1.156" hidden="1">'ChidamberandKemererMetric'!$B$1</definedName>
+    <definedName name="_xlchart.v1.157" hidden="1">'ChidamberandKemererMetric'!$B$183:$B$1031</definedName>
+    <definedName name="_xlchart.v1.158" hidden="1">'ChidamberandKemererMetric'!$B$1:$B$182</definedName>
+    <definedName name="_xlchart.v1.159" hidden="1">'ChidamberandKemererMetric'!$C$1</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">'ChidamberandKemererMetric'!$I$1:$I$1031</definedName>
+    <definedName name="_xlchart.v1.160" hidden="1">'ChidamberandKemererMetric'!$C$183:$C$1031</definedName>
+    <definedName name="_xlchart.v1.161" hidden="1">'ChidamberandKemererMetric'!$C$1:$C$182</definedName>
+    <definedName name="_xlchart.v1.162" hidden="1">'ChidamberandKemererMetric'!$D$1</definedName>
+    <definedName name="_xlchart.v1.163" hidden="1">'ChidamberandKemererMetric'!$D$183:$D$1031</definedName>
+    <definedName name="_xlchart.v1.164" hidden="1">'ChidamberandKemererMetric'!$D$1:$D$182</definedName>
+    <definedName name="_xlchart.v1.165" hidden="1">'ChidamberandKemererMetric'!$E$1</definedName>
+    <definedName name="_xlchart.v1.166" hidden="1">'ChidamberandKemererMetric'!$E$183:$E$1031</definedName>
+    <definedName name="_xlchart.v1.167" hidden="1">'ChidamberandKemererMetric'!$E$1:$E$1031</definedName>
+    <definedName name="_xlchart.v1.168" hidden="1">'ChidamberandKemererMetric'!$E$1:$E$182</definedName>
+    <definedName name="_xlchart.v1.169" hidden="1">'ChidamberandKemererMetric'!$F$1</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">'ChidamberandKemererMetric'!$J$1:$J$1031</definedName>
+    <definedName name="_xlchart.v1.170" hidden="1">'ChidamberandKemererMetric'!$F$183:$F$1031</definedName>
+    <definedName name="_xlchart.v1.171" hidden="1">'ChidamberandKemererMetric'!$F$1:$F$1031</definedName>
+    <definedName name="_xlchart.v1.172" hidden="1">'ChidamberandKemererMetric'!$F$1:$F$182</definedName>
+    <definedName name="_xlchart.v1.173" hidden="1">'ChidamberandKemererMetric'!$G$1</definedName>
+    <definedName name="_xlchart.v1.174" hidden="1">'ChidamberandKemererMetric'!$G$183:$G$1031</definedName>
+    <definedName name="_xlchart.v1.175" hidden="1">'ChidamberandKemererMetric'!$G$1:$G$1031</definedName>
+    <definedName name="_xlchart.v1.176" hidden="1">'ChidamberandKemererMetric'!$G$1:$G$182</definedName>
+    <definedName name="_xlchart.v1.177" hidden="1">'ChidamberandKemererMetric'!$H$1:$H$1031</definedName>
+    <definedName name="_xlchart.v1.178" hidden="1">'ChidamberandKemererMetric'!$I$1:$I$1031</definedName>
+    <definedName name="_xlchart.v1.179" hidden="1">'ChidamberandKemererMetric'!$J$1:$J$1031</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">'ChidamberandKemererMetric'!$B$183:$B$1031</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">'ChidamberandKemererMetric'!$B$1:$B$182</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'ChidamberandKemererMetric'!$C$183:$C$1031</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">'ChidamberandKemererMetric'!$C$183:$C$1031</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">'ChidamberandKemererMetric'!$C$1:$C$182</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">'ChidamberandKemererMetric'!$D$183:$D$1031</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">'ChidamberandKemererMetric'!$D$1:$D$182</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">'ChidamberandKemererMetric'!$E$183:$E$1031</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">'ChidamberandKemererMetric'!$E$1:$E$1031</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">'ChidamberandKemererMetric'!$E$1:$E$182</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">'ChidamberandKemererMetric'!$F$183:$F$1031</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">'ChidamberandKemererMetric'!$F$1:$F$1031</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">'ChidamberandKemererMetric'!$F$1:$F$182</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'ChidamberandKemererMetric'!$C$1:$C$182</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">'ChidamberandKemererMetric'!$G$183:$G$1031</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">'ChidamberandKemererMetric'!$G$1:$G$1031</definedName>
+    <definedName name="_xlchart.v1.32" hidden="1">'ChidamberandKemererMetric'!$G$1:$G$182</definedName>
+    <definedName name="_xlchart.v1.33" hidden="1">'ChidamberandKemererMetric'!$H$1:$H$1031</definedName>
+    <definedName name="_xlchart.v1.34" hidden="1">'ChidamberandKemererMetric'!$I$1:$I$1031</definedName>
+    <definedName name="_xlchart.v1.35" hidden="1">'ChidamberandKemererMetric'!$J$1:$J$1031</definedName>
+    <definedName name="_xlchart.v1.36" hidden="1">'ChidamberandKemererMetric'!$B$183:$B$1031</definedName>
+    <definedName name="_xlchart.v1.37" hidden="1">'ChidamberandKemererMetric'!$B$1:$B$182</definedName>
+    <definedName name="_xlchart.v1.38" hidden="1">'ChidamberandKemererMetric'!$C$183:$C$1031</definedName>
+    <definedName name="_xlchart.v1.39" hidden="1">'ChidamberandKemererMetric'!$C$1:$C$182</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'ChidamberandKemererMetric'!$D$183:$D$1031</definedName>
+    <definedName name="_xlchart.v1.40" hidden="1">'ChidamberandKemererMetric'!$D$183:$D$1031</definedName>
+    <definedName name="_xlchart.v1.41" hidden="1">'ChidamberandKemererMetric'!$D$1:$D$182</definedName>
+    <definedName name="_xlchart.v1.42" hidden="1">'ChidamberandKemererMetric'!$E$183:$E$1031</definedName>
+    <definedName name="_xlchart.v1.43" hidden="1">'ChidamberandKemererMetric'!$E$1:$E$1031</definedName>
+    <definedName name="_xlchart.v1.44" hidden="1">'ChidamberandKemererMetric'!$E$1:$E$182</definedName>
+    <definedName name="_xlchart.v1.45" hidden="1">'ChidamberandKemererMetric'!$F$183:$F$1031</definedName>
+    <definedName name="_xlchart.v1.46" hidden="1">'ChidamberandKemererMetric'!$F$1:$F$1031</definedName>
+    <definedName name="_xlchart.v1.47" hidden="1">'ChidamberandKemererMetric'!$F$1:$F$182</definedName>
+    <definedName name="_xlchart.v1.48" hidden="1">'ChidamberandKemererMetric'!$G$183:$G$1031</definedName>
+    <definedName name="_xlchart.v1.49" hidden="1">'ChidamberandKemererMetric'!$G$1:$G$1031</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'ChidamberandKemererMetric'!$D$1:$D$182</definedName>
+    <definedName name="_xlchart.v1.50" hidden="1">'ChidamberandKemererMetric'!$G$1:$G$182</definedName>
+    <definedName name="_xlchart.v1.51" hidden="1">'ChidamberandKemererMetric'!$H$1:$H$1031</definedName>
+    <definedName name="_xlchart.v1.52" hidden="1">'ChidamberandKemererMetric'!$I$1:$I$1031</definedName>
+    <definedName name="_xlchart.v1.53" hidden="1">'ChidamberandKemererMetric'!$J$1:$J$1031</definedName>
+    <definedName name="_xlchart.v1.54" hidden="1">'ChidamberandKemererMetric'!$B$1</definedName>
+    <definedName name="_xlchart.v1.55" hidden="1">'ChidamberandKemererMetric'!$B$183:$B$1031</definedName>
+    <definedName name="_xlchart.v1.56" hidden="1">'ChidamberandKemererMetric'!$B$1:$B$182</definedName>
+    <definedName name="_xlchart.v1.57" hidden="1">'ChidamberandKemererMetric'!$C$1</definedName>
+    <definedName name="_xlchart.v1.58" hidden="1">'ChidamberandKemererMetric'!$C$183:$C$1031</definedName>
+    <definedName name="_xlchart.v1.59" hidden="1">'ChidamberandKemererMetric'!$C$1:$C$182</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'ChidamberandKemererMetric'!$E$183:$E$1031</definedName>
+    <definedName name="_xlchart.v1.60" hidden="1">'ChidamberandKemererMetric'!$D$1</definedName>
+    <definedName name="_xlchart.v1.61" hidden="1">'ChidamberandKemererMetric'!$D$183:$D$1031</definedName>
+    <definedName name="_xlchart.v1.62" hidden="1">'ChidamberandKemererMetric'!$D$1:$D$182</definedName>
+    <definedName name="_xlchart.v1.63" hidden="1">'ChidamberandKemererMetric'!$E$1</definedName>
+    <definedName name="_xlchart.v1.64" hidden="1">'ChidamberandKemererMetric'!$E$183:$E$1031</definedName>
+    <definedName name="_xlchart.v1.65" hidden="1">'ChidamberandKemererMetric'!$E$1:$E$1031</definedName>
+    <definedName name="_xlchart.v1.66" hidden="1">'ChidamberandKemererMetric'!$E$1:$E$182</definedName>
+    <definedName name="_xlchart.v1.67" hidden="1">'ChidamberandKemererMetric'!$F$1</definedName>
+    <definedName name="_xlchart.v1.68" hidden="1">'ChidamberandKemererMetric'!$F$183:$F$1031</definedName>
+    <definedName name="_xlchart.v1.69" hidden="1">'ChidamberandKemererMetric'!$F$1:$F$1031</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'ChidamberandKemererMetric'!$E$1:$E$1031</definedName>
+    <definedName name="_xlchart.v1.70" hidden="1">'ChidamberandKemererMetric'!$F$1:$F$182</definedName>
+    <definedName name="_xlchart.v1.71" hidden="1">'ChidamberandKemererMetric'!$G$1</definedName>
+    <definedName name="_xlchart.v1.72" hidden="1">'ChidamberandKemererMetric'!$G$183:$G$1031</definedName>
+    <definedName name="_xlchart.v1.73" hidden="1">'ChidamberandKemererMetric'!$G$1:$G$1031</definedName>
+    <definedName name="_xlchart.v1.74" hidden="1">'ChidamberandKemererMetric'!$G$1:$G$182</definedName>
+    <definedName name="_xlchart.v1.75" hidden="1">'ChidamberandKemererMetric'!$H$1:$H$1031</definedName>
+    <definedName name="_xlchart.v1.76" hidden="1">'ChidamberandKemererMetric'!$I$1:$I$1031</definedName>
+    <definedName name="_xlchart.v1.77" hidden="1">'ChidamberandKemererMetric'!$J$1:$J$1031</definedName>
+    <definedName name="_xlchart.v1.78" hidden="1">'ChidamberandKemererMetric'!$B$183:$B$1031</definedName>
+    <definedName name="_xlchart.v1.79" hidden="1">'ChidamberandKemererMetric'!$B$1:$B$182</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">'ChidamberandKemererMetric'!$E$1:$E$182</definedName>
+    <definedName name="_xlchart.v1.80" hidden="1">'ChidamberandKemererMetric'!$C$183:$C$1031</definedName>
+    <definedName name="_xlchart.v1.81" hidden="1">'ChidamberandKemererMetric'!$C$1:$C$182</definedName>
+    <definedName name="_xlchart.v1.82" hidden="1">'ChidamberandKemererMetric'!$D$183:$D$1031</definedName>
+    <definedName name="_xlchart.v1.83" hidden="1">'ChidamberandKemererMetric'!$D$1:$D$182</definedName>
+    <definedName name="_xlchart.v1.84" hidden="1">'ChidamberandKemererMetric'!$E$183:$E$1031</definedName>
+    <definedName name="_xlchart.v1.85" hidden="1">'ChidamberandKemererMetric'!$E$1:$E$1031</definedName>
+    <definedName name="_xlchart.v1.86" hidden="1">'ChidamberandKemererMetric'!$E$1:$E$182</definedName>
+    <definedName name="_xlchart.v1.87" hidden="1">'ChidamberandKemererMetric'!$F$183:$F$1031</definedName>
+    <definedName name="_xlchart.v1.88" hidden="1">'ChidamberandKemererMetric'!$F$1:$F$1031</definedName>
+    <definedName name="_xlchart.v1.89" hidden="1">'ChidamberandKemererMetric'!$F$1:$F$182</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">'ChidamberandKemererMetric'!$F$183:$F$1031</definedName>
+    <definedName name="_xlchart.v1.90" hidden="1">'ChidamberandKemererMetric'!$G$183:$G$1031</definedName>
+    <definedName name="_xlchart.v1.91" hidden="1">'ChidamberandKemererMetric'!$G$1:$G$1031</definedName>
+    <definedName name="_xlchart.v1.92" hidden="1">'ChidamberandKemererMetric'!$G$1:$G$182</definedName>
+    <definedName name="_xlchart.v1.93" hidden="1">'ChidamberandKemererMetric'!$H$1:$H$1031</definedName>
+    <definedName name="_xlchart.v1.94" hidden="1">'ChidamberandKemererMetric'!$I$1:$I$1031</definedName>
+    <definedName name="_xlchart.v1.95" hidden="1">'ChidamberandKemererMetric'!$J$1:$J$1031</definedName>
+    <definedName name="_xlchart.v1.96" hidden="1">'ChidamberandKemererMetric'!$B$183:$B$1031</definedName>
+    <definedName name="_xlchart.v1.97" hidden="1">'ChidamberandKemererMetric'!$B$1:$B$182</definedName>
+    <definedName name="_xlchart.v1.98" hidden="1">'ChidamberandKemererMetric'!$C$183:$C$1031</definedName>
+    <definedName name="_xlchart.v1.99" hidden="1">'ChidamberandKemererMetric'!$C$1:$C$182</definedName>
     <definedName name="DadosExternos_1" localSheetId="0" hidden="1">'ChidamberandKemererMetric'!$A$1:$G$1032</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -3246,10 +3425,10 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -3265,6 +3444,795 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.157</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.160</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.163</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="3">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.166</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="4">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.170</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="5">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.174</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Chidamber-Kemerer metrics</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1800">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>Chidamber-Kemerer metrics</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{F082580A-2C7D-49A3-8494-22F0FE44E122}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.156</cx:f>
+              <cx:v>CBO</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{C6030D92-9EC4-4389-8394-6BDF7CF524CB}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.159</cx:f>
+              <cx:v>DIT</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{0FAC6587-99B2-492F-BAAD-14C05C1F7DA6}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.162</cx:f>
+              <cx:v>LCOM</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="2"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{4FE8F553-F7EF-4A24-BF80-20F01028C492}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.165</cx:f>
+              <cx:v>NOC</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="3"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{B165E858-E7AD-42A7-834D-A40B3DBED50E}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.169</cx:f>
+              <cx:v>RFC</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="4"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{E50207BC-89AA-4CD0-A03B-9BD36C1B87A0}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.173</cx:f>
+              <cx:v>WMC</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="5"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="b" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>102870</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>64770</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>407670</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>64770</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="4" name="Gráfico 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42B82486-F70E-E349-977F-13DE9941D99A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8553450" y="64770"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100"/>
+                <a:t>Este gráfico não está disponível na sua versão do Excel.
+Editar esta forma ou guardar este livro num formato de ficheiro diferente irá indisponibilizar o gráfico de forma permanente.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3290,13 +4258,13 @@
     <sortCondition descending="1" ref="G1:G1032"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{B250DF82-B523-41ED-B519-9F5FA035AEB6}" uniqueName="1" name="Class" queryTableFieldId="1" dataDxfId="11" totalsRowDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{1B814D68-081B-43C9-A4B3-407BDA99F235}" uniqueName="2" name="CBO" queryTableFieldId="2" dataDxfId="10" totalsRowDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{614A82A6-2953-4207-AEFE-FFDC680FA905}" uniqueName="3" name="DIT" queryTableFieldId="3" dataDxfId="9" totalsRowDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{7A2F00D9-7956-4D64-A18C-EDB27D5C669E}" uniqueName="4" name="LCOM" queryTableFieldId="4" dataDxfId="8" totalsRowDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{C5F9066F-8588-4828-9661-FEFB353A0DF4}" uniqueName="5" name="NOC" queryTableFieldId="5" dataDxfId="7" totalsRowDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{B250DF82-B523-41ED-B519-9F5FA035AEB6}" uniqueName="1" name="Class" queryTableFieldId="1" dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{1B814D68-081B-43C9-A4B3-407BDA99F235}" uniqueName="2" name="CBO" queryTableFieldId="2" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{614A82A6-2953-4207-AEFE-FFDC680FA905}" uniqueName="3" name="DIT" queryTableFieldId="3" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{7A2F00D9-7956-4D64-A18C-EDB27D5C669E}" uniqueName="4" name="LCOM" queryTableFieldId="4" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{C5F9066F-8588-4828-9661-FEFB353A0DF4}" uniqueName="5" name="NOC" queryTableFieldId="5" dataDxfId="3" totalsRowDxfId="2"/>
     <tableColumn id="6" xr3:uid="{01B29C66-05DD-4EEE-B4CD-BF7F5078607C}" uniqueName="6" name="RFC" queryTableFieldId="6"/>
-    <tableColumn id="7" xr3:uid="{33C6F7A8-7A0A-4652-9F68-7AFE4B0494E0}" uniqueName="7" name="WMC" queryTableFieldId="7" dataDxfId="6" totalsRowDxfId="0"/>
+    <tableColumn id="7" xr3:uid="{33C6F7A8-7A0A-4652-9F68-7AFE4B0494E0}" uniqueName="7" name="WMC" queryTableFieldId="7" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3599,10 +4567,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7AD6517-6F62-439D-9EEB-6B8417F231AB}">
+  <sheetPr codeName="Folha2"/>
   <dimension ref="A1:G1033"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
-      <selection activeCell="G183" sqref="G183"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -27352,21 +28321,10 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A1BA031-D4A1-4849-803C-C11CC03D676A}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
